--- a/code/MMServerEngine/others/table/tables/ItemTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/ItemTable.xlsx
@@ -474,10 +474,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -595,10 +595,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -612,10 +612,10 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
         <v>1</v>
-      </c>
-      <c r="C8">
-        <v>15</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -629,134 +629,30 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>100</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>5</v>
-      </c>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>4</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>15</v>
-      </c>
-      <c r="I15" s="1"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="I16" s="1"/>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I17" s="1"/>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/code/MMServerEngine/others/table/tables/ItemTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/ItemTable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhengyuzhenelex/Documents/my/SingleServerEngine/code/MMServerEngine/others/table/tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="3520" yWindow="3380" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTable" sheetId="1" r:id="rId1"/>
@@ -12,6 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +119,13 @@
   </si>
   <si>
     <t>price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,14 +137,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -187,7 +207,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -229,12 +249,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -264,12 +284,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -473,22 +493,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="7.125" customWidth="1"/>
-    <col min="11" max="12" width="7.625" customWidth="1"/>
-    <col min="15" max="15" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -504,8 +524,11 @@
       <c r="E1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -521,8 +544,11 @@
       <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -538,8 +564,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -555,8 +584,11 @@
       <c r="E4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -572,8 +604,11 @@
       <c r="E5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -589,8 +624,11 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -606,8 +644,11 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -623,8 +664,11 @@
       <c r="E8">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -640,18 +684,21 @@
       <c r="E9">
         <v>15</v>
       </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I13" s="1"/>
     </row>
   </sheetData>
@@ -664,16 +711,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -710,12 +757,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/code/MMServerEngine/others/table/tables/ItemTable.xlsx
+++ b/code/MMServerEngine/others/table/tables/ItemTable.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="3380" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="1780" yWindow="3200" windowWidth="33600" windowHeight="19420"/>
   </bookViews>
   <sheets>
     <sheet name="ItemTable" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +162,14 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,11 +193,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -497,7 +508,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -508,183 +519,183 @@
     <col min="15" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4">
+    <row r="3" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>30</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>15</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B7" s="2">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C7" s="2">
+        <v>30</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7">
-        <v>30</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="23" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
         <v>15</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="I9" s="1"/>
